--- a/biology/Zoologie/Anartia_fatima/Anartia_fatima.xlsx
+++ b/biology/Zoologie/Anartia_fatima/Anartia_fatima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anartia fatima est un insecte lépidoptère appartenant à la famille des Nymphalidae à la sous-famille des Nymphalinae et au genre Anartia.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d'Anartia fatima lui a été donné par Fabricius en 1793.
-Synonymes : Papilio fatima Fabricius, 1793; ; Nymphalis fatima Godart, 1824 [1].
-Sous-espèces
-Anartia fatima fatima; au Guatemala et au Mexique.
-Anartia fatima colima Lamas, 1995 ; au Mexique[1].
-Noms vernaculaires
-Anartia fatima se nomme Banded Peacock ou Fatima en anglais.
+Synonymes : Papilio fatima Fabricius, 1793; ; Nymphalis fatima Godart, 1824 .
 </t>
         </is>
       </c>
@@ -545,14 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon de couleur marron doré avec une bande médiane blanche qui barre les antérieures et se prolonge en submarginale aux postérieures. De discrètes petites Elle est doublée aux antérieures d'une ligne plus externe de taches blanches et aux postérieures une ligne plus interne de taches rouges[2].
-Le revers, marron plus clair, présente la même ornementation.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anartia fatima fatima; au Guatemala et au Mexique.
+Anartia fatima colima Lamas, 1995 ; au Mexique.</t>
         </is>
       </c>
     </row>
@@ -577,15 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole toute l'année.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont nombreuses, des  Acanthaceae, Ruellia dans le sud du Texas, Justicia (Justicia pilosella et Justicia runyonii) au Mexique, et ailleurs Blechum, Dicliptera[1],[2],[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anartia fatima se nomme Banded Peacock ou Fatima en anglais.
 </t>
         </is>
       </c>
@@ -611,16 +628,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon de couleur marron doré avec une bande médiane blanche qui barre les antérieures et se prolonge en submarginale aux postérieures. De discrètes petites Elle est doublée aux antérieures d'une ligne plus externe de taches blanches et aux postérieures une ligne plus interne de taches rouges.
+Le revers, marron plus clair, présente la même ornementation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont nombreuses, des  Acanthaceae, Ruellia dans le sud du Texas, Justicia (Justicia pilosella et Justicia runyonii) au Mexique, et ailleurs Blechum, Dicliptera.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le centre de l'Amérique, au Texas, au Mexique et en Amérique centrale au Costa-Rica, au Panama et au Guatemala[1].
-Biotope
-Il réside en divers lieux en région subtropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le centre de l'Amérique, au Texas, au Mexique et en Amérique centrale au Costa-Rica, au Panama et au Guatemala.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en divers lieux en région subtropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_fatima</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
